--- a/repetier/semtec-resistance-temp-table.xlsx
+++ b/repetier/semtec-resistance-temp-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/multidest/Projects/3dprinter/Da-Vinci-1.0A/repetier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD15D2F-7746-8B42-B37A-0E1BF49C8539}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240EC8D-BF63-704C-821A-F0EEDBFCC249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A31808CC-671A-2041-B31E-781DF979B22D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main Table" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
   <si>
     <t>Temperature (C)</t>
   </si>
@@ -278,13 +278,175 @@
   </si>
   <si>
     <t>resistance36</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>502NT-4- R025H39G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>852NT-4- R050H34G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>103NT-4- R025H34G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>103NT-4- R025H41G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>203NT-4- R025H42G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>493NT-4- R100H40G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>503NT-4- R025H42G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>104NT-4- R025H42G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>104NT-4- R025H43G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>204NT-4- R025H43G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>234NT-4- R200H42G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>504NT-4- R025H45G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>105NT-4- R025H46G</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,16 +472,37 @@
       <color theme="1"/>
       <name val="Var(--ff-mono)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -327,15 +510,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,15 +1053,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F265C-7AC8-5D40-B422-0ECC7D709AFD}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="H2 A1:A1048576 H1:H1048576"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:25" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +1101,50 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17">
+      <c r="L1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17">
       <c r="A2" s="2">
         <v>-50</v>
       </c>
@@ -721,8 +1172,50 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="17">
+      <c r="L2" s="65">
+        <v>-50</v>
+      </c>
+      <c r="M2" s="64">
+        <v>339.5</v>
+      </c>
+      <c r="N2" s="64">
+        <v>346.8</v>
+      </c>
+      <c r="O2" s="64">
+        <v>394.7</v>
+      </c>
+      <c r="P2" s="64">
+        <v>830.9</v>
+      </c>
+      <c r="Q2" s="65">
+        <v>1931</v>
+      </c>
+      <c r="R2" s="65">
+        <v>3376</v>
+      </c>
+      <c r="S2" s="5">
+        <v>3576</v>
+      </c>
+      <c r="T2" s="6">
+        <v>8887</v>
+      </c>
+      <c r="U2" s="65">
+        <v>10090</v>
+      </c>
+      <c r="V2" s="43">
+        <v>19040</v>
+      </c>
+      <c r="W2" s="6">
+        <v>17900</v>
+      </c>
+      <c r="X2" s="7">
+        <v>52600</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>110900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="17">
       <c r="A3" s="2">
         <v>-40</v>
       </c>
@@ -752,8 +1245,50 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="17">
+      <c r="L3" s="66">
+        <v>-30</v>
+      </c>
+      <c r="M3" s="57">
+        <v>92.34</v>
+      </c>
+      <c r="N3" s="58">
+        <v>106.1</v>
+      </c>
+      <c r="O3" s="58">
+        <v>122</v>
+      </c>
+      <c r="P3" s="58">
+        <v>207.7</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>459.2</v>
+      </c>
+      <c r="R3" s="58">
+        <v>885.4</v>
+      </c>
+      <c r="S3" s="8">
+        <v>965</v>
+      </c>
+      <c r="T3" s="8">
+        <v>2156</v>
+      </c>
+      <c r="U3" s="66">
+        <v>2353</v>
+      </c>
+      <c r="V3" s="44">
+        <v>4524</v>
+      </c>
+      <c r="W3" s="8">
+        <v>4633</v>
+      </c>
+      <c r="X3" s="9">
+        <v>12290</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="17">
       <c r="A4" s="2">
         <v>-30</v>
       </c>
@@ -785,8 +1320,50 @@
         <v>12091</v>
       </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="17">
+      <c r="L4" s="65">
+        <v>-10</v>
+      </c>
+      <c r="M4" s="63">
+        <v>28.48</v>
+      </c>
+      <c r="N4" s="63">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="O4" s="63">
+        <v>44.09</v>
+      </c>
+      <c r="P4" s="63">
+        <v>60.87</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="R4" s="64">
+        <v>275.5</v>
+      </c>
+      <c r="S4" s="11">
+        <v>302.8</v>
+      </c>
+      <c r="T4" s="12">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="U4" s="65">
+        <v>657</v>
+      </c>
+      <c r="V4" s="45">
+        <v>1284</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1393</v>
+      </c>
+      <c r="X4" s="13">
+        <v>3396</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="17">
       <c r="A5" s="2">
         <v>-20</v>
       </c>
@@ -818,8 +1395,50 @@
         <v>6268</v>
       </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="17">
+      <c r="L5" s="66">
+        <v>0</v>
+      </c>
+      <c r="M5" s="57">
+        <v>16.64</v>
+      </c>
+      <c r="N5" s="57">
+        <v>23.92</v>
+      </c>
+      <c r="O5" s="57">
+        <v>27.86</v>
+      </c>
+      <c r="P5" s="57">
+        <v>34.85</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>72.67</v>
+      </c>
+      <c r="R5" s="58">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="S5" s="14">
+        <v>175.2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>354.6</v>
+      </c>
+      <c r="U5" s="58">
+        <v>368.1</v>
+      </c>
+      <c r="V5" s="46">
+        <v>724.5</v>
+      </c>
+      <c r="W5" s="15">
+        <v>804.8</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1887</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17">
       <c r="A6" s="2">
         <v>-10</v>
       </c>
@@ -853,8 +1472,50 @@
       <c r="K6" s="2">
         <v>6920</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17">
+      <c r="L6" s="65">
+        <v>10</v>
+      </c>
+      <c r="M6" s="63">
+        <v>10.06</v>
+      </c>
+      <c r="N6" s="63">
+        <v>15.49</v>
+      </c>
+      <c r="O6" s="63">
+        <v>18.13</v>
+      </c>
+      <c r="P6" s="63">
+        <v>20.65</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>42.33</v>
+      </c>
+      <c r="R6" s="63">
+        <v>98.65</v>
+      </c>
+      <c r="S6" s="18">
+        <v>104</v>
+      </c>
+      <c r="T6" s="12">
+        <v>208.8</v>
+      </c>
+      <c r="U6" s="64">
+        <v>213.5</v>
+      </c>
+      <c r="V6" s="47">
+        <v>423</v>
+      </c>
+      <c r="W6" s="12">
+        <v>479.2</v>
+      </c>
+      <c r="X6" s="13">
+        <v>1084</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -888,8 +1549,50 @@
       <c r="K7" s="2">
         <v>3833</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17">
+      <c r="L7" s="66">
+        <v>25</v>
+      </c>
+      <c r="M7" s="57">
+        <v>5</v>
+      </c>
+      <c r="N7" s="56">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="O7" s="57">
+        <v>10</v>
+      </c>
+      <c r="P7" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>20</v>
+      </c>
+      <c r="R7" s="57">
+        <v>49.41</v>
+      </c>
+      <c r="S7" s="19">
+        <v>50</v>
+      </c>
+      <c r="T7" s="20">
+        <v>100</v>
+      </c>
+      <c r="U7" s="58">
+        <v>100</v>
+      </c>
+      <c r="V7" s="46">
+        <v>200</v>
+      </c>
+      <c r="W7" s="15">
+        <v>232.1</v>
+      </c>
+      <c r="X7" s="21">
+        <v>500</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="17">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -923,8 +1626,50 @@
       <c r="K8" s="2">
         <v>2190</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+      <c r="L8" s="65">
+        <v>40</v>
+      </c>
+      <c r="M8" s="62">
+        <v>2.649</v>
+      </c>
+      <c r="N8" s="62">
+        <v>4.899</v>
+      </c>
+      <c r="O8" s="62">
+        <v>5.806</v>
+      </c>
+      <c r="P8" s="62">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>10.1</v>
+      </c>
+      <c r="R8" s="63">
+        <v>26.23</v>
+      </c>
+      <c r="S8" s="22">
+        <v>25.42</v>
+      </c>
+      <c r="T8" s="23">
+        <v>50.9</v>
+      </c>
+      <c r="U8" s="63">
+        <v>49.9</v>
+      </c>
+      <c r="V8" s="47">
+        <v>100.6</v>
+      </c>
+      <c r="W8" s="12">
+        <v>119</v>
+      </c>
+      <c r="X8" s="24">
+        <v>245.2</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>484.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="17">
       <c r="A9" s="2">
         <v>20</v>
       </c>
@@ -958,8 +1703,50 @@
       <c r="K9" s="2">
         <v>1289</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17">
+      <c r="L9" s="66">
+        <v>50</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1.79</v>
+      </c>
+      <c r="N9" s="56">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="O9" s="56">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="P9" s="56">
+        <v>3.4369999999999998</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="R9" s="57">
+        <v>17.7</v>
+      </c>
+      <c r="S9" s="19">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="T9" s="20">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="U9" s="57">
+        <v>32.42</v>
+      </c>
+      <c r="V9" s="48">
+        <v>65.72</v>
+      </c>
+      <c r="W9" s="20">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="X9" s="21">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>308.39999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="17">
       <c r="A10" s="2">
         <v>30</v>
       </c>
@@ -993,8 +1780,50 @@
       <c r="K10" s="2">
         <v>780.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17">
+      <c r="L10" s="65">
+        <v>60</v>
+      </c>
+      <c r="M10" s="62">
+        <v>1.238</v>
+      </c>
+      <c r="N10" s="62">
+        <v>2.524</v>
+      </c>
+      <c r="O10" s="62">
+        <v>3.0110000000000001</v>
+      </c>
+      <c r="P10" s="62">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R10" s="63">
+        <v>12.2</v>
+      </c>
+      <c r="S10" s="22">
+        <v>11.19</v>
+      </c>
+      <c r="T10" s="23">
+        <v>22.48</v>
+      </c>
+      <c r="U10" s="63">
+        <v>21.54</v>
+      </c>
+      <c r="V10" s="49">
+        <v>43.89</v>
+      </c>
+      <c r="W10" s="23">
+        <v>52.84</v>
+      </c>
+      <c r="X10" s="24">
+        <v>103.1</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>200.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17">
       <c r="A11" s="2">
         <v>40</v>
       </c>
@@ -1028,8 +1857,50 @@
       <c r="K11" s="2">
         <v>485.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17">
+      <c r="L11" s="66">
+        <v>80</v>
+      </c>
+      <c r="M11" s="55">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="N11" s="56">
+        <v>1.391</v>
+      </c>
+      <c r="O11" s="56">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="P11" s="56">
+        <v>1.159</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="R11" s="56">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="S11" s="25">
+        <v>5.343</v>
+      </c>
+      <c r="T11" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="U11" s="57">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="V11" s="48">
+        <v>20.81</v>
+      </c>
+      <c r="W11" s="20">
+        <v>25.39</v>
+      </c>
+      <c r="X11" s="26">
+        <v>47.24</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>90.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="17">
       <c r="A12" s="2">
         <v>50</v>
       </c>
@@ -1063,8 +1934,50 @@
       <c r="K12" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17">
+      <c r="L12" s="65">
+        <v>85</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="N12" s="62">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="O12" s="62">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="P12" s="61">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="R12" s="62">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="S12" s="27">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="T12" s="28">
+        <v>9.0939999999999994</v>
+      </c>
+      <c r="U12" s="62">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="V12" s="49">
+        <v>17.48</v>
+      </c>
+      <c r="W12" s="23">
+        <v>21.38</v>
+      </c>
+      <c r="X12" s="29">
+        <v>39.31</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="17">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -1098,8 +2011,50 @@
       <c r="K13" s="2">
         <v>201.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="17">
+      <c r="L13" s="66">
+        <v>100</v>
+      </c>
+      <c r="M13" s="55">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="N13" s="55">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="O13" s="55">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="P13" s="55">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="R13" s="56">
+        <v>3.3</v>
+      </c>
+      <c r="S13" s="25">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="T13" s="30">
+        <v>5.569</v>
+      </c>
+      <c r="U13" s="56">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="V13" s="48">
+        <v>10.61</v>
+      </c>
+      <c r="W13" s="20">
+        <v>13.06</v>
+      </c>
+      <c r="X13" s="26">
+        <v>23.27</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>43.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="17">
       <c r="A14" s="2">
         <v>70</v>
       </c>
@@ -1133,8 +2088,50 @@
       <c r="K14" s="2">
         <v>133.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17">
+      <c r="L14" s="65">
+        <v>120</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0.2014</v>
+      </c>
+      <c r="N14" s="61">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="O14" s="61">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="P14" s="61">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="Q14" s="61">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="R14" s="62">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="S14" s="27">
+        <v>1.498</v>
+      </c>
+      <c r="T14" s="28">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="U14" s="62">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="V14" s="50">
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="W14" s="28">
+        <v>7.13</v>
+      </c>
+      <c r="X14" s="29">
+        <v>12.23</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="17">
       <c r="A15" s="2">
         <v>80</v>
       </c>
@@ -1168,8 +2165,50 @@
       <c r="K15" s="2">
         <v>90.53</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17">
+      <c r="L15" s="66">
+        <v>140</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="N15" s="55">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="O15" s="55">
+        <v>0.3679</v>
+      </c>
+      <c r="P15" s="55">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="R15" s="56">
+        <v>1.127</v>
+      </c>
+      <c r="S15" s="31">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="T15" s="30">
+        <v>1.77</v>
+      </c>
+      <c r="U15" s="56">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="V15" s="51">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="W15" s="30">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="X15" s="32">
+        <v>6.7869999999999999</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="17">
       <c r="A16" s="2">
         <v>90</v>
       </c>
@@ -1203,8 +2242,50 @@
       <c r="K16" s="2">
         <v>62.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17">
+      <c r="L16" s="65">
+        <v>160</v>
+      </c>
+      <c r="M16" s="59">
+        <v>7.9680000000000001E-2</v>
+      </c>
+      <c r="N16" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="61">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="P16" s="61">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="Q16" s="61">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="R16" s="61">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="S16" s="33">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="T16" s="28">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="U16" s="61">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="V16" s="50">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="W16" s="28">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="X16" s="34">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>7.1879999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="17">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -1238,8 +2319,50 @@
       <c r="K17" s="2">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="17">
+      <c r="L17" s="66">
+        <v>180</v>
+      </c>
+      <c r="M17" s="60">
+        <v>5.3409999999999999E-2</v>
+      </c>
+      <c r="N17" s="55">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="O17" s="55">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="P17" s="60">
+        <v>8.8109999999999994E-2</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="R17" s="55">
+        <v>0.4592</v>
+      </c>
+      <c r="S17" s="31">
+        <v>0.3296</v>
+      </c>
+      <c r="T17" s="35">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="U17" s="55">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="V17" s="51">
+        <v>1.244</v>
+      </c>
+      <c r="W17" s="30">
+        <v>1.544</v>
+      </c>
+      <c r="X17" s="32">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>4.3220000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17">
       <c r="A18" s="2">
         <v>110</v>
       </c>
@@ -1273,8 +2396,50 @@
       <c r="K18" s="2">
         <v>31.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="17">
+      <c r="L18" s="65">
+        <v>200</v>
+      </c>
+      <c r="M18" s="59">
+        <v>3.7080000000000002E-2</v>
+      </c>
+      <c r="N18" s="59">
+        <v>9.0359999999999996E-2</v>
+      </c>
+      <c r="O18" s="61">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="P18" s="59">
+        <v>6.0150000000000002E-2</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>9.6979999999999997E-2</v>
+      </c>
+      <c r="R18" s="61">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="T18" s="36">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="U18" s="61">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="V18" s="52">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="W18" s="28">
+        <v>1</v>
+      </c>
+      <c r="X18" s="34">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="Y18" s="27">
+        <v>2.7029999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17">
       <c r="A19" s="2">
         <v>120</v>
       </c>
@@ -1308,8 +2473,50 @@
       <c r="K19" s="2">
         <v>22.69</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="17">
+      <c r="L19" s="66">
+        <v>220</v>
+      </c>
+      <c r="M19" s="60">
+        <v>2.656E-2</v>
+      </c>
+      <c r="N19" s="60">
+        <v>6.3289999999999999E-2</v>
+      </c>
+      <c r="O19" s="60">
+        <v>7.467E-2</v>
+      </c>
+      <c r="P19" s="60">
+        <v>4.2389999999999997E-2</v>
+      </c>
+      <c r="Q19" s="60">
+        <v>6.7129999999999995E-2</v>
+      </c>
+      <c r="R19" s="55">
+        <v>0.2145</v>
+      </c>
+      <c r="S19" s="31">
+        <v>0.1459</v>
+      </c>
+      <c r="T19" s="35">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="U19" s="55">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="V19" s="53">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="W19" s="35">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="X19" s="37">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17">
       <c r="A20" s="2">
         <v>130</v>
       </c>
@@ -1343,8 +2550,50 @@
       <c r="K20" s="2">
         <v>16.649999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="17">
+      <c r="L20" s="65">
+        <v>240</v>
+      </c>
+      <c r="M20" s="59">
+        <v>1.9560000000000001E-2</v>
+      </c>
+      <c r="N20" s="59">
+        <v>4.5429999999999998E-2</v>
+      </c>
+      <c r="O20" s="59">
+        <v>5.3449999999999998E-2</v>
+      </c>
+      <c r="P20" s="59">
+        <v>3.0720000000000001E-2</v>
+      </c>
+      <c r="Q20" s="59">
+        <v>4.7840000000000001E-2</v>
+      </c>
+      <c r="R20" s="61">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="S20" s="33">
+        <v>0.1016</v>
+      </c>
+      <c r="T20" s="36">
+        <v>0.2104</v>
+      </c>
+      <c r="U20" s="61">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V20" s="52">
+        <v>0.3765</v>
+      </c>
+      <c r="W20" s="36">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="X20" s="38">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="17">
       <c r="A21" s="2">
         <v>140</v>
       </c>
@@ -1378,8 +2627,50 @@
       <c r="K21" s="2">
         <v>12.39</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="17">
+      <c r="L21" s="66">
+        <v>260</v>
+      </c>
+      <c r="M21" s="60">
+        <v>1.477E-2</v>
+      </c>
+      <c r="N21" s="60">
+        <v>3.3369999999999997E-2</v>
+      </c>
+      <c r="O21" s="60">
+        <v>3.9070000000000001E-2</v>
+      </c>
+      <c r="P21" s="60">
+        <v>2.2849999999999999E-2</v>
+      </c>
+      <c r="Q21" s="60">
+        <v>3.499E-2</v>
+      </c>
+      <c r="R21" s="55">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="S21" s="39">
+        <v>7.2609999999999994E-2</v>
+      </c>
+      <c r="T21" s="35">
+        <v>0.1507</v>
+      </c>
+      <c r="U21" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="V21" s="53">
+        <v>0.2676</v>
+      </c>
+      <c r="W21" s="35">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="X21" s="37">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="Y21" s="37">
+        <v>0.80189999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17">
       <c r="A22" s="2">
         <v>150</v>
       </c>
@@ -1413,8 +2704,50 @@
       <c r="K22" s="2">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="17">
+      <c r="L22" s="65">
+        <v>280</v>
+      </c>
+      <c r="M22" s="59">
+        <v>1.141E-2</v>
+      </c>
+      <c r="N22" s="59">
+        <v>2.5059999999999999E-2</v>
+      </c>
+      <c r="O22" s="59">
+        <v>2.912E-2</v>
+      </c>
+      <c r="P22" s="59">
+        <v>1.7430000000000001E-2</v>
+      </c>
+      <c r="Q22" s="59">
+        <v>2.6190000000000001E-2</v>
+      </c>
+      <c r="R22" s="59">
+        <v>8.3360000000000004E-2</v>
+      </c>
+      <c r="S22" s="40">
+        <v>5.3190000000000001E-2</v>
+      </c>
+      <c r="T22" s="36">
+        <v>0.1105</v>
+      </c>
+      <c r="U22" s="59">
+        <v>9.1009999999999994E-2</v>
+      </c>
+      <c r="V22" s="52">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="W22" s="36">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="X22" s="38">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="Y22" s="38">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="17">
       <c r="A23" s="2">
         <v>160</v>
       </c>
@@ -1448,8 +2781,50 @@
       <c r="K23" s="2">
         <v>7.1070000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="17">
+      <c r="L23" s="66">
+        <v>300</v>
+      </c>
+      <c r="M23" s="60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N23" s="60">
+        <v>1.9189999999999999E-2</v>
+      </c>
+      <c r="O23" s="60">
+        <v>2.2089999999999999E-2</v>
+      </c>
+      <c r="P23" s="60">
+        <v>1.3610000000000001E-2</v>
+      </c>
+      <c r="Q23" s="60">
+        <v>2.0029999999999999E-2</v>
+      </c>
+      <c r="R23" s="60">
+        <v>6.3450000000000006E-2</v>
+      </c>
+      <c r="S23" s="39">
+        <v>3.9809999999999998E-2</v>
+      </c>
+      <c r="T23" s="41">
+        <v>8.2780000000000006E-2</v>
+      </c>
+      <c r="U23" s="60">
+        <v>6.7720000000000002E-2</v>
+      </c>
+      <c r="V23" s="53">
+        <v>0.1452</v>
+      </c>
+      <c r="W23" s="35">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="X23" s="37">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Y23" s="37">
+        <v>0.40739999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17">
       <c r="A24" s="2">
         <v>170</v>
       </c>
@@ -1484,7 +2859,7 @@
         <v>5.4720000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:25" ht="17">
       <c r="A25" s="2">
         <v>180</v>
       </c>
@@ -1519,7 +2894,7 @@
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:25" ht="17">
       <c r="A26" s="2">
         <v>190</v>
       </c>
@@ -1554,7 +2929,7 @@
         <v>3.339</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:25" ht="17">
       <c r="A27" s="2">
         <v>200</v>
       </c>
@@ -1589,7 +2964,7 @@
         <v>2.6440000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17">
+    <row r="28" spans="1:25" ht="17">
       <c r="A28" s="2">
         <v>210</v>
       </c>
@@ -1620,7 +2995,7 @@
         <v>2.113</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17">
+    <row r="29" spans="1:25" ht="17">
       <c r="A29" s="2">
         <v>220</v>
       </c>
@@ -1651,7 +3026,7 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17">
+    <row r="30" spans="1:25" ht="17">
       <c r="A30" s="2">
         <v>230</v>
       </c>
@@ -1682,7 +3057,7 @@
         <v>1.3819999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17">
+    <row r="31" spans="1:25" ht="17">
       <c r="A31" s="2">
         <v>240</v>
       </c>
@@ -1713,7 +3088,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17">
+    <row r="32" spans="1:25" ht="17">
       <c r="A32" s="2">
         <v>250</v>
       </c>
@@ -1858,16 +3233,17 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D277D7-FD9B-E94F-91DC-9603216E8EC8}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="L1" sqref="L1:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1882,14 +3258,14 @@
     <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="65">
         <v>-50</v>
       </c>
       <c r="D1" t="s">
@@ -1898,16 +3274,16 @@
       <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2">
-        <v>8743000</v>
+      <c r="F1" s="6">
+        <v>10090000</v>
       </c>
       <c r="G1" s="2" t="str">
-        <f>CONCATENATE(A1,B1,C1)</f>
+        <f t="shared" ref="G1:G36" si="0">CONCATENATE(A1,B1,C1)</f>
         <v>temperature1: -50</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>CONCATENATE(D1,E1,F1)</f>
-        <v>resistance1: 8743000</v>
+        <v>resistance1: 10090000</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
@@ -1917,15 +3293,15 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="17">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2">
-        <v>-40</v>
+      <c r="C2" s="66">
+        <v>-30</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -1933,35 +3309,41 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2">
-        <v>4218000</v>
+      <c r="F2" s="8">
+        <v>2353000</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>CONCATENATE(A2,B2,C2)</f>
-        <v>temperature2: -40</v>
+        <f t="shared" si="0"/>
+        <v>temperature2: -30</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H36" si="0">CONCATENATE(D2,E2,F2)</f>
-        <v>resistance2: 4218000</v>
+        <f t="shared" ref="H2:H36" si="1">CONCATENATE(D2,E2,F2)</f>
+        <v>resistance2: 2353000</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="L2" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G3)-1)/2)+1,MOD(ROWS(G$2:G3)-1,2)+1)</f>
-        <v>resistance1: 8743000</v>
+        <v>resistance1: 10090000</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="17">
+      <c r="O2" s="65">
+        <v>10090</v>
+      </c>
+      <c r="P2">
+        <f>O2*1000</f>
+        <v>10090000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2">
-        <v>-30</v>
+      <c r="C3" s="65">
+        <v>-10</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -1969,35 +3351,41 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2">
-        <v>2132000</v>
+      <c r="F3" s="12">
+        <v>657000</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>CONCATENATE(A3,B3,C3)</f>
-        <v>temperature3: -30</v>
+        <f t="shared" si="0"/>
+        <v>temperature3: -10</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance3: 2132000</v>
+        <f t="shared" si="1"/>
+        <v>resistance3: 657000</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="L3" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G4)-1)/2)+1,MOD(ROWS(G$2:G4)-1,2)+1)</f>
-        <v>temperature2: -40</v>
+        <v>temperature2: -30</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="17">
+      <c r="O3" s="66">
+        <v>2353</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P23" si="2">O3*1000</f>
+        <v>2353000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
-        <v>-20</v>
+      <c r="C4" s="66">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -2005,35 +3393,41 @@
       <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2">
-        <v>1127000</v>
+      <c r="F4" s="15">
+        <v>368100</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>CONCATENATE(A4,B4,C4)</f>
-        <v>temperature4: -20</v>
+        <f t="shared" si="0"/>
+        <v>temperature4: 0</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance4: 1127000</v>
+        <f t="shared" si="1"/>
+        <v>resistance4: 368100</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="L4" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G5)-1)/2)+1,MOD(ROWS(G$2:G5)-1,2)+1)</f>
-        <v>resistance2: 4218000</v>
+        <v>resistance2: 2353000</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="17">
+      <c r="O4" s="65">
+        <v>657</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>657000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2">
-        <v>-10</v>
+      <c r="C5" s="65">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2041,35 +3435,41 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2">
-        <v>620000</v>
+      <c r="F5" s="12">
+        <v>213500</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>CONCATENATE(A5,B5,C5)</f>
-        <v>temperature5: -10</v>
+        <f t="shared" si="0"/>
+        <v>temperature5: 10</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance5: 620000</v>
+        <f t="shared" si="1"/>
+        <v>resistance5: 213500</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="L5" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G6)-1)/2)+1,MOD(ROWS(G$2:G6)-1,2)+1)</f>
-        <v>temperature3: -30</v>
+        <v>temperature3: -10</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="17">
+      <c r="O5" s="58">
+        <v>368.1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>368100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
+      <c r="C6" s="66">
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -2077,35 +3477,41 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2">
-        <v>353700</v>
+      <c r="F6" s="20">
+        <v>100000</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>CONCATENATE(A6,B6,C6)</f>
-        <v>temperature6: 0</v>
+        <f t="shared" si="0"/>
+        <v>temperature6: 25</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance6: 353700</v>
+        <f t="shared" si="1"/>
+        <v>resistance6: 100000</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="L6" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G7)-1)/2)+1,MOD(ROWS(G$2:G7)-1,2)+1)</f>
-        <v>resistance3: 2132000</v>
+        <v>resistance3: 657000</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="17">
+      <c r="O6" s="64">
+        <v>213.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>213500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2">
-        <v>10</v>
+      <c r="C7" s="65">
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -2113,35 +3519,41 @@
       <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2">
-        <v>208600</v>
+      <c r="F7" s="23">
+        <v>49900</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>CONCATENATE(A7,B7,C7)</f>
-        <v>temperature7: 10</v>
+        <f t="shared" si="0"/>
+        <v>temperature7: 40</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance7: 208600</v>
+        <f t="shared" si="1"/>
+        <v>resistance7: 49900</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="L7" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G8)-1)/2)+1,MOD(ROWS(G$2:G8)-1,2)+1)</f>
-        <v>temperature4: -20</v>
+        <v>temperature4: 0</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="17">
+      <c r="O7" s="58">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2">
-        <v>20</v>
+      <c r="C8" s="66">
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -2149,35 +3561,41 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2">
-        <v>126800</v>
+      <c r="F8" s="20">
+        <v>32420</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>CONCATENATE(A8,B8,C8)</f>
-        <v>temperature8: 20</v>
+        <f t="shared" si="0"/>
+        <v>temperature8: 50</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance8: 126800</v>
+        <f t="shared" si="1"/>
+        <v>resistance8: 32420</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="L8" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G9)-1)/2)+1,MOD(ROWS(G$2:G9)-1,2)+1)</f>
-        <v>resistance4: 1127000</v>
+        <v>resistance4: 368100</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="17">
+      <c r="O8" s="63">
+        <v>49.9</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>49900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2">
-        <v>30</v>
+      <c r="C9" s="65">
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -2185,35 +3603,41 @@
       <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2">
-        <v>79360</v>
+      <c r="F9" s="23">
+        <v>21540</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>CONCATENATE(A9,B9,C9)</f>
-        <v>temperature9: 30</v>
+        <f t="shared" si="0"/>
+        <v>temperature9: 60</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance9: 79360</v>
+        <f t="shared" si="1"/>
+        <v>resistance9: 21540</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="L9" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G10)-1)/2)+1,MOD(ROWS(G$2:G10)-1,2)+1)</f>
-        <v>temperature5: -10</v>
+        <v>temperature5: 10</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="17">
+      <c r="O9" s="57">
+        <v>32.42</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>32420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2">
-        <v>40</v>
+      <c r="C10" s="66">
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
@@ -2221,35 +3645,41 @@
       <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2">
-        <v>50960</v>
+      <c r="F10" s="15">
+        <v>10130</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>CONCATENATE(A10,B10,C10)</f>
-        <v>temperature10: 40</v>
+        <f t="shared" si="0"/>
+        <v>temperature10: 80</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance10: 50960</v>
+        <f t="shared" si="1"/>
+        <v>resistance10: 10130</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="L10" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G11)-1)/2)+1,MOD(ROWS(G$2:G11)-1,2)+1)</f>
-        <v>resistance5: 620000</v>
+        <v>resistance5: 213500</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="17">
+      <c r="O10" s="63">
+        <v>21.54</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>21540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2">
-        <v>50</v>
+      <c r="C11" s="65">
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -2257,35 +3687,41 @@
       <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2">
-        <v>33490</v>
+      <c r="F11" s="28">
+        <v>8486</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>CONCATENATE(A11,B11,C11)</f>
-        <v>temperature11: 50</v>
+        <f t="shared" si="0"/>
+        <v>temperature11: 85</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance11: 33490</v>
+        <f t="shared" si="1"/>
+        <v>resistance11: 8486</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="L11" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G12)-1)/2)+1,MOD(ROWS(G$2:G12)-1,2)+1)</f>
-        <v>temperature6: 0</v>
+        <v>temperature6: 25</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="17">
+      <c r="O11" s="57">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>10130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2">
-        <v>60</v>
+      <c r="C12" s="66">
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -2293,35 +3729,41 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2">
-        <v>22510</v>
+      <c r="F12" s="30">
+        <v>5122</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>CONCATENATE(A12,B12,C12)</f>
-        <v>temperature12: 60</v>
+        <f t="shared" si="0"/>
+        <v>temperature12: 100</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance12: 22510</v>
+        <f t="shared" si="1"/>
+        <v>resistance12: 5122</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="L12" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G13)-1)/2)+1,MOD(ROWS(G$2:G13)-1,2)+1)</f>
-        <v>resistance6: 353700</v>
+        <v>resistance6: 100000</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="17">
+      <c r="O12" s="62">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
-        <v>70</v>
+      <c r="C13" s="65">
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -2329,35 +3771,41 @@
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2">
-        <v>15440</v>
+      <c r="F13" s="28">
+        <v>2763</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>CONCATENATE(A13,B13,C13)</f>
-        <v>temperature13: 70</v>
+        <f t="shared" si="0"/>
+        <v>temperature13: 120</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance13: 15440</v>
+        <f t="shared" si="1"/>
+        <v>resistance13: 2763</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="L13" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G14)-1)/2)+1,MOD(ROWS(G$2:G14)-1,2)+1)</f>
-        <v>temperature7: 10</v>
+        <v>temperature7: 40</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="17">
+      <c r="O13" s="56">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2">
-        <v>80</v>
+      <c r="C14" s="66">
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2365,35 +3813,41 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2">
-        <v>10800</v>
+      <c r="F14" s="30">
+        <v>1574</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>CONCATENATE(A14,B14,C14)</f>
-        <v>temperature14: 80</v>
+        <f t="shared" si="0"/>
+        <v>temperature14: 140</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance14: 10800</v>
+        <f t="shared" si="1"/>
+        <v>resistance14: 1574</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G15)-1)/2)+1,MOD(ROWS(G$2:G15)-1,2)+1)</f>
-        <v>resistance7: 208600</v>
+        <v>resistance7: 49900</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="17">
+      <c r="O14" s="62">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2">
-        <v>90</v>
+      <c r="C15" s="65">
+        <v>160</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -2401,35 +3855,41 @@
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2">
-        <v>7686</v>
+      <c r="F15" s="28">
+        <v>941.4</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>CONCATENATE(A15,B15,C15)</f>
-        <v>temperature15: 90</v>
+        <f t="shared" si="0"/>
+        <v>temperature15: 160</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance15: 7686</v>
+        <f t="shared" si="1"/>
+        <v>resistance15: 941.4</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G16)-1)/2)+1,MOD(ROWS(G$2:G16)-1,2)+1)</f>
-        <v>temperature8: 20</v>
+        <v>temperature8: 50</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="17">
+      <c r="O15" s="56">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2">
-        <v>100</v>
+      <c r="C16" s="66">
+        <v>180</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -2437,35 +3897,41 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2">
-        <v>5556</v>
+      <c r="F16" s="35">
+        <v>587.30000000000007</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>CONCATENATE(A16,B16,C16)</f>
-        <v>temperature16: 100</v>
+        <f t="shared" si="0"/>
+        <v>temperature16: 180</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance16: 5556</v>
+        <f t="shared" si="1"/>
+        <v>resistance16: 587.3</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="L16" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G17)-1)/2)+1,MOD(ROWS(G$2:G17)-1,2)+1)</f>
-        <v>resistance8: 126800</v>
+        <v>resistance8: 32420</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="17">
+      <c r="O16" s="61">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>941.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2">
-        <v>110</v>
+      <c r="C17" s="65">
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
@@ -2473,35 +3939,41 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2">
-        <v>4082</v>
+      <c r="F17" s="36">
+        <v>380.40000000000003</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>CONCATENATE(A17,B17,C17)</f>
-        <v>temperature17: 110</v>
+        <f t="shared" si="0"/>
+        <v>temperature17: 200</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance17: 4082</v>
+        <f t="shared" si="1"/>
+        <v>resistance17: 380.4</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="L17" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G18)-1)/2)+1,MOD(ROWS(G$2:G18)-1,2)+1)</f>
-        <v>temperature9: 30</v>
+        <v>temperature9: 60</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="17">
+      <c r="O17" s="55">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>587.30000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2">
-        <v>120</v>
+      <c r="C18" s="66">
+        <v>220</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
@@ -2509,35 +3981,41 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2">
-        <v>3043</v>
+      <c r="F18" s="35">
+        <v>254.9</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>CONCATENATE(A18,B18,C18)</f>
-        <v>temperature18: 120</v>
+        <f t="shared" si="0"/>
+        <v>temperature18: 220</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance18: 3043</v>
+        <f t="shared" si="1"/>
+        <v>resistance18: 254.9</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="L18" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G19)-1)/2)+1,MOD(ROWS(G$2:G19)-1,2)+1)</f>
-        <v>resistance9: 79360</v>
+        <v>resistance9: 21540</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="17">
+      <c r="O18" s="61">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>380.40000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2">
-        <v>130</v>
+      <c r="C19" s="65">
+        <v>240</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -2545,35 +4023,41 @@
       <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="2">
-        <v>2298</v>
+      <c r="F19" s="36">
+        <v>176</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>CONCATENATE(A19,B19,C19)</f>
-        <v>temperature19: 130</v>
+        <f t="shared" si="0"/>
+        <v>temperature19: 240</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance19: 2298</v>
+        <f t="shared" si="1"/>
+        <v>resistance19: 176</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G20)-1)/2)+1,MOD(ROWS(G$2:G20)-1,2)+1)</f>
-        <v>temperature10: 40</v>
+        <v>temperature10: 80</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="17">
+      <c r="O19" s="55">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>254.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2">
-        <v>140</v>
+      <c r="C20" s="66">
+        <v>260</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -2581,35 +4065,41 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2">
-        <v>1758</v>
+      <c r="F20" s="35">
+        <v>125</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>CONCATENATE(A20,B20,C20)</f>
-        <v>temperature20: 140</v>
+        <f t="shared" si="0"/>
+        <v>temperature20: 260</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance20: 1758</v>
+        <f t="shared" si="1"/>
+        <v>resistance20: 125</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G21)-1)/2)+1,MOD(ROWS(G$2:G21)-1,2)+1)</f>
-        <v>resistance10: 50960</v>
+        <v>resistance10: 10130</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="17">
+      <c r="O20" s="61">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2">
-        <v>150</v>
+      <c r="C21" s="65">
+        <v>280</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -2617,35 +4107,41 @@
       <c r="E21" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2">
-        <v>1360</v>
+      <c r="F21" s="36">
+        <v>91.009999999999991</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>CONCATENATE(A21,B21,C21)</f>
-        <v>temperature21: 150</v>
+        <f t="shared" si="0"/>
+        <v>temperature21: 280</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance21: 1360</v>
+        <f t="shared" si="1"/>
+        <v>resistance21: 91.01</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="L21" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G22)-1)/2)+1,MOD(ROWS(G$2:G22)-1,2)+1)</f>
-        <v>temperature11: 50</v>
+        <v>temperature11: 85</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="17">
+      <c r="O21" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2">
-        <v>160</v>
+      <c r="C22" s="66">
+        <v>300</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -2653,27 +4149,33 @@
       <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="2">
-        <v>1064</v>
+      <c r="F22" s="41">
+        <v>67.72</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>CONCATENATE(A22,B22,C22)</f>
-        <v>temperature22: 160</v>
+        <f t="shared" si="0"/>
+        <v>temperature22: 300</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>resistance22: 1064</v>
+        <f t="shared" si="1"/>
+        <v>resistance22: 67.72</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="L22" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G23)-1)/2)+1,MOD(ROWS(G$2:G23)-1,2)+1)</f>
-        <v>resistance11: 33490</v>
+        <v>resistance11: 8486</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="17">
+      <c r="O22" s="59">
+        <v>9.1009999999999994E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>91.009999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2693,23 +4195,29 @@
         <v>841.40000000000009</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>CONCATENATE(A23,B23,C23)</f>
+        <f t="shared" si="0"/>
         <v>temperature23: 170</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance23: 841.4</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="L23" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G24)-1)/2)+1,MOD(ROWS(G$2:G24)-1,2)+1)</f>
-        <v>temperature12: 60</v>
+        <v>temperature12: 100</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="17">
+      <c r="O23" s="60">
+        <v>6.7720000000000002E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>67.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2729,23 +4237,23 @@
         <v>671.4</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>CONCATENATE(A24,B24,C24)</f>
+        <f t="shared" si="0"/>
         <v>temperature24: 180</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance24: 671.4</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="L24" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G25)-1)/2)+1,MOD(ROWS(G$2:G25)-1,2)+1)</f>
-        <v>resistance12: 22510</v>
+        <v>resistance12: 5122</v>
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="17">
+    <row r="25" spans="1:16" ht="17">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2765,23 +4273,23 @@
         <v>540.79999999999995</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>CONCATENATE(A25,B25,C25)</f>
+        <f t="shared" si="0"/>
         <v>temperature25: 190</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance25: 540.8</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="L25" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G26)-1)/2)+1,MOD(ROWS(G$2:G26)-1,2)+1)</f>
-        <v>temperature13: 70</v>
+        <v>temperature13: 120</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="17">
+    <row r="26" spans="1:16" ht="17">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2801,23 +4309,23 @@
         <v>439.3</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>CONCATENATE(A26,B26,C26)</f>
+        <f t="shared" si="0"/>
         <v>temperature26: 200</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance26: 439.3</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="L26" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G27)-1)/2)+1,MOD(ROWS(G$2:G27)-1,2)+1)</f>
-        <v>resistance13: 15440</v>
+        <v>resistance13: 2763</v>
       </c>
       <c r="M26" s="3"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="17">
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2837,23 +4345,23 @@
         <v>359.70000000000005</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>CONCATENATE(A27,B27,C27)</f>
+        <f t="shared" si="0"/>
         <v>temperature27: 210</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance27: 359.7</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="L27" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G28)-1)/2)+1,MOD(ROWS(G$2:G28)-1,2)+1)</f>
-        <v>temperature14: 80</v>
+        <v>temperature14: 140</v>
       </c>
       <c r="M27" s="3"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="17">
+    <row r="28" spans="1:16" ht="17">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2873,23 +4381,23 @@
         <v>296.89999999999998</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>CONCATENATE(A28,B28,C28)</f>
+        <f t="shared" si="0"/>
         <v>temperature28: 220</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance28: 296.9</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G29)-1)/2)+1,MOD(ROWS(G$2:G29)-1,2)+1)</f>
-        <v>resistance14: 10800</v>
+        <v>resistance14: 1574</v>
       </c>
       <c r="M28" s="3"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="17">
+    <row r="29" spans="1:16" ht="17">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2909,23 +4417,23 @@
         <v>246.79999999999998</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>CONCATENATE(A29,B29,C29)</f>
+        <f t="shared" si="0"/>
         <v>temperature29: 230</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance29: 246.8</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="L29" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G30)-1)/2)+1,MOD(ROWS(G$2:G30)-1,2)+1)</f>
-        <v>temperature15: 90</v>
+        <v>temperature15: 160</v>
       </c>
       <c r="M29" s="3"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="17">
+    <row r="30" spans="1:16" ht="17">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2945,23 +4453,23 @@
         <v>206.5</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>CONCATENATE(A30,B30,C30)</f>
+        <f t="shared" si="0"/>
         <v>temperature30: 240</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance30: 206.5</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="L30" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G31)-1)/2)+1,MOD(ROWS(G$2:G31)-1,2)+1)</f>
-        <v>resistance15: 7686</v>
+        <v>resistance15: 941.4</v>
       </c>
       <c r="M30" s="3"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="17">
+    <row r="31" spans="1:16" ht="17">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2981,23 +4489,23 @@
         <v>174</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>CONCATENATE(A31,B31,C31)</f>
+        <f t="shared" si="0"/>
         <v>temperature31: 250</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance31: 174</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="L31" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G32)-1)/2)+1,MOD(ROWS(G$2:G32)-1,2)+1)</f>
-        <v>temperature16: 100</v>
+        <v>temperature16: 180</v>
       </c>
       <c r="M31" s="3"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="17">
+    <row r="32" spans="1:16" ht="17">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3017,18 +4525,18 @@
         <v>147.5</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>CONCATENATE(A32,B32,C32)</f>
+        <f t="shared" si="0"/>
         <v>temperature32: 260</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance32: 147.5</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="L32" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G33)-1)/2)+1,MOD(ROWS(G$2:G33)-1,2)+1)</f>
-        <v>resistance16: 5556</v>
+        <v>resistance16: 587.3</v>
       </c>
       <c r="M32" s="3"/>
       <c r="O32" s="2"/>
@@ -3053,18 +4561,18 @@
         <v>125.8</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>CONCATENATE(A33,B33,C33)</f>
+        <f t="shared" si="0"/>
         <v>temperature33: 270</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance33: 125.8</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="L33" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G34)-1)/2)+1,MOD(ROWS(G$2:G34)-1,2)+1)</f>
-        <v>temperature17: 110</v>
+        <v>temperature17: 200</v>
       </c>
       <c r="M33" s="3"/>
       <c r="O33" s="2"/>
@@ -3089,18 +4597,18 @@
         <v>107.89999999999999</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>CONCATENATE(A34,B34,C34)</f>
+        <f t="shared" si="0"/>
         <v>temperature34: 280</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance34: 107.9</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="L34" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G35)-1)/2)+1,MOD(ROWS(G$2:G35)-1,2)+1)</f>
-        <v>resistance17: 4082</v>
+        <v>resistance17: 380.4</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="2"/>
@@ -3125,18 +4633,18 @@
         <v>93.05</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>CONCATENATE(A35,B35,C35)</f>
+        <f t="shared" si="0"/>
         <v>temperature35: 290</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance35: 93.05</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G36)-1)/2)+1,MOD(ROWS(G$2:G36)-1,2)+1)</f>
-        <v>temperature18: 120</v>
+        <v>temperature18: 220</v>
       </c>
       <c r="M35" s="3"/>
       <c r="O35" s="2"/>
@@ -3161,18 +4669,18 @@
         <v>80.650000000000006</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>CONCATENATE(A36,B36,C36)</f>
+        <f t="shared" si="0"/>
         <v>temperature36: 300</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>resistance36: 80.65</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G37)-1)/2)+1,MOD(ROWS(G$2:G37)-1,2)+1)</f>
-        <v>resistance18: 3043</v>
+        <v>resistance18: 254.9</v>
       </c>
       <c r="M36" s="3"/>
       <c r="O36" s="2"/>
@@ -3180,56 +4688,56 @@
     <row r="37" spans="1:15">
       <c r="L37" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G38)-1)/2)+1,MOD(ROWS(G$2:G38)-1,2)+1)</f>
-        <v>temperature19: 130</v>
+        <v>temperature19: 240</v>
       </c>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:15">
       <c r="L38" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G39)-1)/2)+1,MOD(ROWS(G$2:G39)-1,2)+1)</f>
-        <v>resistance19: 2298</v>
+        <v>resistance19: 176</v>
       </c>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:15">
       <c r="L39" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G40)-1)/2)+1,MOD(ROWS(G$2:G40)-1,2)+1)</f>
-        <v>temperature20: 140</v>
+        <v>temperature20: 260</v>
       </c>
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:15">
       <c r="L40" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G41)-1)/2)+1,MOD(ROWS(G$2:G41)-1,2)+1)</f>
-        <v>resistance20: 1758</v>
+        <v>resistance20: 125</v>
       </c>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:15">
       <c r="L41" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G42)-1)/2)+1,MOD(ROWS(G$2:G42)-1,2)+1)</f>
-        <v>temperature21: 150</v>
+        <v>temperature21: 280</v>
       </c>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:15">
       <c r="L42" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G43)-1)/2)+1,MOD(ROWS(G$2:G43)-1,2)+1)</f>
-        <v>resistance21: 1360</v>
+        <v>resistance21: 91.01</v>
       </c>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:15">
       <c r="L43" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G44)-1)/2)+1,MOD(ROWS(G$2:G44)-1,2)+1)</f>
-        <v>temperature22: 160</v>
+        <v>temperature22: 300</v>
       </c>
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:15">
       <c r="L44" s="3" t="str">
         <f>INDEX($G$1:$H$36,INT((ROWS(G$2:G45)-1)/2)+1,MOD(ROWS(G$2:G45)-1,2)+1)</f>
-        <v>resistance22: 1064</v>
+        <v>resistance22: 67.72</v>
       </c>
       <c r="M44" s="3"/>
     </row>
